--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490494.1150211875</v>
+        <v>487931.0946852822</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>234.2910680449558</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>157.920654593756</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>117.3650712856335</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.55276019063743</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>128.8066096881718</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>192.4834911188315</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3928413252377</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>213.6572806645752</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>182.9377227717322</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>207.3718846845847</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>70.34204477336699</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>197.1189012377245</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>137.3676443337307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>44.75138076689361</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>105.6356839950556</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.3267021497076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.7157037776617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>137.0965178272087</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>45.36631724422193</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>59.44001103519365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>143.2091541404073</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>155.6850131498963</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.4636264596503</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.021456295685</v>
+        <v>1134.226501951988</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>765.2639850115766</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2402.82351567919</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2071.760628335619</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.760628335619</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.760628335619</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.621296359807</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.90341785788</v>
+        <v>425.769149707141</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9672349299731</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8505955176373</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E4" t="n">
-        <v>222.9375019352442</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>76.04755443733384</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.34446183165</v>
+        <v>828.2101936809108</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.5518826881197</v>
+        <v>607.4176145373807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1522.010132800342</v>
+        <v>861.3216348137569</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.010132800342</v>
+        <v>492.3591178733452</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>492.3591178733452</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>492.3591178733452</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>485.4136171241417</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664333</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="W5" t="n">
-        <v>1912.149464776154</v>
+        <v>1624.926725050648</v>
       </c>
       <c r="X5" t="n">
-        <v>1912.149464776154</v>
+        <v>1251.460966789569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1522.010132800342</v>
+        <v>861.3216348137569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605186</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919901</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924316</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756613</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.1642758038113</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C7" t="n">
-        <v>342.1642758038113</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D7" t="n">
-        <v>192.0476363914755</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>192.0476363914755</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>192.0476363914755</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387892</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="W7" t="n">
-        <v>570.1538267018286</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="X7" t="n">
-        <v>342.1642758038113</v>
+        <v>1121.418530735218</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.1642758038113</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0323651253084</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188877</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145213</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2193.450786296772</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2440.633520129069</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.8705643698324</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C10" t="n">
-        <v>603.8705643698324</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4957,55 +4957,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1368.76480175621</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.080313550323</v>
+        <v>1138.123964499713</v>
       </c>
       <c r="W10" t="n">
-        <v>824.6631435133626</v>
+        <v>848.7067944627527</v>
       </c>
       <c r="X10" t="n">
-        <v>824.6631435133626</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.8705643698324</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230176</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951107</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>669.086731582775</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1736380003819</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>374.2836905024715</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794805</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048583</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510506</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304619</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304619</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406602</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>605.645163642942</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>457.7320700605488</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>457.7320700605488</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>119.2902967703794</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835331</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.436048694068</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2021.834583717009</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.759357061207</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.07486885532</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.07486885532</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2052.406834234631</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V31" t="n">
-        <v>1797.722346028744</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,58 +6835,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>378.6527890600114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>378.6527890600114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>211.4566897748913</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,46 +7412,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7783,16 +7783,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,37 +7804,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>30.3692565058945</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566671</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.454437538929696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>120.3919735757272</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>133.3092974530425</v>
       </c>
       <c r="H2" t="n">
-        <v>164.1742290322937</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>93.12459553470603</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>28.15649395853814</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>4.845153664065066</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6825818796756</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>112.9489693570392</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.257951202387147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>26.80843451460711</v>
+        <v>165.5241382922728</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>43.92976817443588</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>206.7713260796061</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86.99395161137552</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922764</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>74.19629618688091</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>23.83108638657359</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>966217.2690034921</v>
+        <v>966217.2690034923</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631201</v>
+        <v>354580.09686312</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="E2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="F2" t="n">
         <v>383394.6348527531</v>
-      </c>
-      <c r="F2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
         <v>383394.6348527531</v>
@@ -26332,28 +26332,28 @@
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="J2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="K2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="J2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="K2" t="n">
-        <v>383394.6348527531</v>
-      </c>
       <c r="L2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="M2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919854</v>
+        <v>91763.11654919866</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,7 +26424,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26436,25 +26436,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426732022</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731957</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-944872.5757018428</v>
+        <v>-945058.9690903821</v>
       </c>
       <c r="C6" t="n">
-        <v>162739.0679838264</v>
+        <v>162739.0679838268</v>
       </c>
       <c r="D6" t="n">
-        <v>162739.0679838263</v>
+        <v>162739.0679838262</v>
       </c>
       <c r="E6" t="n">
-        <v>-233330.649022432</v>
+        <v>-233365.3869478681</v>
       </c>
       <c r="F6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.0546766783</v>
       </c>
       <c r="G6" t="n">
-        <v>274154.7926021141</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="H6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.0546766786</v>
       </c>
       <c r="I6" t="n">
-        <v>274154.7926021137</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="J6" t="n">
-        <v>106549.6147921313</v>
+        <v>106514.8768666957</v>
       </c>
       <c r="K6" t="n">
-        <v>274154.7926021138</v>
+        <v>274120.054676678</v>
       </c>
       <c r="L6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.054676678</v>
       </c>
       <c r="M6" t="n">
-        <v>141547.4988731873</v>
+        <v>141512.7609477514</v>
       </c>
       <c r="N6" t="n">
-        <v>274154.792602114</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="O6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.0546766782</v>
       </c>
       <c r="P6" t="n">
-        <v>274154.7926021137</v>
+        <v>274120.0546766781</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>278.2384053199114</v>
       </c>
       <c r="H2" t="n">
-        <v>136.8443235301117</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.8817498129943</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>141.7538398541668</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>282.7410930847822</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>156.7574775985815</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>26.91375871956646</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>7.091415332636757</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>118.0808297906732</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>141.8690840328283</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>215.8851093478336</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.01874208610349</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-5.25812187936948e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,19 +32792,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>164.2853229338212</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32813,10 +32813,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,34 +33026,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319862</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34778,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>397.300588787935</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>117.9333660065841</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.9351598697843</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>25.73094315394703</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875417</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
